--- a/xlsx/儒字_intext.xlsx
+++ b/xlsx/儒字_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
   <si>
     <t>儒字</t>
   </si>
@@ -29,13 +29,13 @@
     <t>Unihan</t>
   </si>
   <si>
-    <t>政策_政策_美國_儒字</t>
+    <t>政策_政策_美国_儒字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E6%93%B4%E5%B1%95%E5%8D%80B</t>
   </si>
   <si>
-    <t>中日韓統一表意文字擴展區B</t>
+    <t>中日韩统一表意文字扩展区B</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97%E5%AD%97%E4%BD%93%E9%A3%8E%E6%A0%BC</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%A5%E8%9F%B2%E6%9B%B8</t>
   </si>
   <si>
-    <t>鳥蟲書</t>
+    <t>鸟虫书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%86%E4%B9%A6</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E7%99%BD%E6%9B%B8</t>
   </si>
   <si>
-    <t>飛白書</t>
+    <t>飞白书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%95%E7%89%88%E5%8D%B0%E5%88%B7</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%BF%E5%AE%8B%E9%AB%94</t>
   </si>
   <si>
-    <t>仿宋體</t>
+    <t>仿宋体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E4%BD%93</t>
@@ -221,19 +221,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>合體</t>
+    <t>合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E9%AB%94</t>
   </si>
   <si>
-    <t>獨體</t>
+    <t>独体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E9%83%A8%E4%BB%B6</t>
   </si>
   <si>
-    <t>漢字部件</t>
+    <t>汉字部件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%97%E5%AD%97</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B8%E8%AE%8A</t>
   </si>
   <si>
-    <t>隸變</t>
+    <t>隶变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B6%E5%AE%9A</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E5%90%8C%E6%BA%90%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字同源詞</t>
+    <t>汉字同源词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%96%87%E8%AA%AA</t>
   </si>
   <si>
-    <t>右文說</t>
+    <t>右文说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%BD%A2%E5%BC%82%E4%B9%89%E8%AF%8D</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AD%97%E6%A8%99%E6%BA%96%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>國字標準字體</t>
+    <t>国字标准字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E5%AD%97%E5%AD%97%E5%BD%A2%E8%A1%A8</t>
@@ -371,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>新加坡漢字</t>
+    <t>新加坡汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣漢字</t>
+    <t>台湾汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B1%89%E5%AD%97</t>
@@ -389,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>朝鮮漢字</t>
+    <t>朝鲜汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>琉球漢字</t>
+    <t>琉球汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80%E5%AD%97</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E%E5%AD%97</t>
   </si>
   <si>
-    <t>粵語字</t>
+    <t>粤语字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B7%9D%E6%96%B9%E8%A8%80%E5%AD%97</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>南京話</t>
+    <t>南京话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%AF%9D%E6%AD%A3%E9%9F%B3%E6%AD%A3%E5%AD%97</t>
@@ -437,25 +437,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%AE%A2%E5%AE%B6%E8%AA%9E%E6%9B%B8%E5%AF%AB%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>台灣客家語書寫推薦用字</t>
+    <t>台湾客家语书写推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E9%96%A9%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>台閩漢字</t>
+    <t>台闽汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣閩南語推薦用字</t>
+    <t>台湾闽南语推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E7%94%A8%E8%A9%9E</t>
   </si>
   <si>
-    <t>台灣閩南語用詞</t>
+    <t>台湾闽南语用词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97%E7%AE%80%E5%8C%96</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E7%B0%A1%E5%8C%96%E7%88%AD%E8%AB%96</t>
   </si>
   <si>
-    <t>漢字簡化爭論</t>
+    <t>汉字简化争论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E7%B0%A1%E8%BD%89%E6%8F%9B</t>
   </si>
   <si>
-    <t>繁簡轉換</t>
+    <t>繁简转换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E4%BD%93%E4%B8%AD%E6%96%87</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>舊字體</t>
+    <t>旧字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%96%B0%E5%AD%97%E4%BD%93</t>
@@ -527,19 +527,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%B4%E5%BC%B5%E6%96%B0%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>擴張新字體</t>
+    <t>扩张新字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E7%94%A8%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>當用漢字</t>
+    <t>当用汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>常用漢字</t>
+    <t>常用汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E9%9F%B3%E6%B1%89%E5%AD%97%E4%B9%A6%E5%86%99%E8%A7%84%E5%88%99</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E%E6%BC%A2%E5%AD%97%E5%80%9F%E9%9F%B3</t>
   </si>
   <si>
-    <t>閩南語漢字借音</t>
+    <t>闽南语汉字借音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E5%8F%B7</t>
@@ -593,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>日語假名</t>
+    <t>日语假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%91%89%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>萬葉假名</t>
+    <t>万叶假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%81%87%E5%90%8D</t>
@@ -617,19 +617,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%A8%A3_(%E6%9C%9D%E9%AE%AE%E8%AA%9E)</t>
   </si>
   <si>
-    <t>口訣 (朝鮮語)</t>
+    <t>口诀 (朝鲜语)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8F%E8%AE%80</t>
   </si>
   <si>
-    <t>吏讀</t>
+    <t>吏读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9C%AD</t>
   </si>
   <si>
-    <t>鄉札</t>
+    <t>乡札</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E5%9B%BD%E5%AD%97</t>
@@ -701,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%AE%80</t>
   </si>
   <si>
-    <t>音讀</t>
+    <t>音读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97%E9%9F%B3</t>
   </si>
   <si>
-    <t>朝鮮漢字音</t>
+    <t>朝鲜汉字音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%B6%8A%E8%AF%8D</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%BC%A2%E8%B6%8A%E8%AA%9E</t>
   </si>
   <si>
-    <t>古漢越語</t>
+    <t>古汉越语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%83%E9%9F%B3</t>
@@ -731,31 +731,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%B6%8A%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢越音</t>
+    <t>汉越音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9F%B3_(%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E9%9F%B3)</t>
   </si>
   <si>
-    <t>古音 (日本漢字音)</t>
+    <t>古音 (日本汉字音)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E9%9F%B3</t>
   </si>
   <si>
-    <t>吳音</t>
+    <t>吴音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢音</t>
+    <t>汉音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BC%A2%E9%9F%B3</t>
   </si>
   <si>
-    <t>新漢音</t>
+    <t>新汉音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E9%9F%B3</t>
@@ -773,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%A3%E7%94%A8%E9%9F%B3</t>
   </si>
   <si>
-    <t>慣用音</t>
+    <t>惯用音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E9%9F%B3%E7%9A%84%E8%81%B2%E8%AA%BF</t>
   </si>
   <si>
-    <t>日本漢字音的聲調</t>
+    <t>日本汉字音的声调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%8A%80%E6%9C%AF</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E8%B6%8A%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>中日韓越統一表意文字</t>
+    <t>中日韩越统一表意文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E8%BE%93%E5%85%A5%E6%8A%80%E6%9C%AF</t>
@@ -809,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字詞</t>
+    <t>汉字词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AF%E5%88%A5%E5%AD%97</t>
   </si>
   <si>
-    <t>錯別字</t>
+    <t>错别字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E7%AC%94%E5%BF%98%E5%AD%97</t>
@@ -827,19 +827,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%99%A4%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>廢除漢字</t>
+    <t>废除汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E5%BE%A9%E6%B4%BB</t>
   </si>
   <si>
-    <t>漢字復活</t>
+    <t>汉字复活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E8%AC%8E</t>
   </si>
   <si>
-    <t>字謎</t>
+    <t>字谜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97</t>
@@ -857,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%96%83</t>
   </si>
   <si>
-    <t>漢喃</t>
+    <t>汉喃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD</t>
@@ -875,21 +875,15 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>漢字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>越南語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
   </si>
   <si>
@@ -905,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%91%E6%AF%8D</t>
@@ -917,61 +911,55 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E8%81%B2%E6%AF%8D</t>
   </si>
   <si>
-    <t>零聲母</t>
+    <t>零声母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%BB%E5%B0%BE</t>
   </si>
   <si>
-    <t>韻尾</t>
+    <t>韵尾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E6%96%87%E5%8C%96%E5%9C%88</t>
   </si>
   <si>
-    <t>漢字文化圈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%96%87%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>日文漢字</t>
+    <t>日文汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%96%87%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>韓文漢字</t>
+    <t>韩文汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%90%84%E5%9C%B0%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>Template talk-各地漢字</t>
+    <t>Template talk-各地汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E9%96%A9%E5%AD%97</t>
   </si>
   <si>
-    <t>台閩字</t>
+    <t>台闽字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>台灣閩南語推薦用字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%AE%A2%E5%AE%B6%E8%AA%9E%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣客家語推薦用字</t>
+    <t>台湾客家语推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%88%B6%E6%B1%89%E5%AD%97</t>
@@ -5495,7 +5483,7 @@
         <v>285</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>37</v>
@@ -5521,10 +5509,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>7</v>
@@ -5550,10 +5538,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>5</v>
@@ -5579,10 +5567,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>24</v>
@@ -5608,10 +5596,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>5</v>
@@ -5637,10 +5625,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5666,10 +5654,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5695,10 +5683,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5724,10 +5712,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>7</v>
@@ -5753,10 +5741,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>114</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5782,10 +5770,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5811,10 +5799,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5840,10 +5828,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5869,10 +5857,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -5985,10 +5973,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6159,10 +6147,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>144</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6188,10 +6176,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6275,10 +6263,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F171" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>

--- a/xlsx/儒字_intext.xlsx
+++ b/xlsx/儒字_intext.xlsx
@@ -29,7 +29,7 @@
     <t>Unihan</t>
   </si>
   <si>
-    <t>政策_政策_美國_儒字</t>
+    <t>体育运动_体育运动_宦官_儒字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E6%93%B4%E5%B1%95%E5%8D%80B</t>
